--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_0_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_0_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>8.458842092382145e-16</v>
+        <v>6.00120553851436e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.31198797474451</v>
+        <v>54.37936759898865</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[34.814064571231704, 51.80991137825732]</t>
+          <t>[44.33140403004295, 64.42733116793435]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.7925003128590413]</t>
+          <t>[1.6667108172198102, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.78058226189787</v>
+        <v>65.38490285827498</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.16722447301956, 63.39394005077618]</t>
+          <t>[59.585753274818494, 71.18405244173147]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.45997997998045</v>
+        <v>18.30118118118162</v>
       </c>
       <c r="X2" t="n">
-        <v>18.57543543543588</v>
+        <v>17.52130130130172</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.34452452452502</v>
+        <v>19.08106106106152</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5500000000004</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.959988141375106e-13</v>
+        <v>1.425641604768657e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>3.198300454321127e-12</v>
+        <v>4.808146638037282e-09</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>53.43910936168325</v>
+        <v>44.54113572278699</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.26050123697216, 70.61771748639434]</t>
+          <t>[26.96111616588948, 62.1211552796845]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.547144686981255e-09</v>
+        <v>1.612199053147023e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>7.547144686981255e-09</v>
+        <v>1.612199053147023e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5408948312486928</v>
+        <v>0.9371317425122712</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.8553685703467702, -0.22642109215061534]</t>
+          <t>[0.5471843060306556, 1.3270791789938867]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0008757139017119275</v>
+        <v>4.929529937136579e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0008757139017119275</v>
+        <v>4.929529937136579e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>60.84056077551569</v>
+        <v>63.30291238680987</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.746663920725496, 69.93445763030589]</t>
+          <t>[54.03561676678154, 72.57020800683821]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.113413413413447</v>
+        <v>21.39889889889931</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8846846846846983</v>
+        <v>19.83803803803843</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.342142142142196</v>
+        <v>22.9597597597602</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_0_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_0_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.97000000000062</v>
+        <v>25.67000000000057</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>6.00120553851436e-16</v>
+        <v>6.728624391667615e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>54.37936759898865</v>
+        <v>45.2742683619908</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.33140403004295, 64.42733116793435]</t>
+          <t>[36.239642884769474, 54.308893839212125]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.855395060678656</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.6667108172198102, 2.0440793041375027]</t>
+          <t>[1.3773949772495788, 1.8302371615508113]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.38490285827498</v>
+        <v>61.93015559028824</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.585753274818494, 71.18405244173147]</t>
+          <t>[55.943796618561485, 67.91651456201501]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.30118118118162</v>
+        <v>19.11759759759802</v>
       </c>
       <c r="X2" t="n">
-        <v>17.52130130130172</v>
+        <v>18.19255255255296</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.08106106106152</v>
+        <v>20.04264264264309</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.15000000000049</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.425641604768657e-09</v>
+        <v>8.104739102066105e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>4.808146638037282e-09</v>
+        <v>3.087932312253641e-10</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.54113572278699</v>
+        <v>45.02933899791545</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[26.96111616588948, 62.1211552796845]</t>
+          <t>[28.52269940960406, 61.53597858622685]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.612199053147023e-06</v>
+        <v>2.848019982071293e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.612199053147023e-06</v>
+        <v>2.848019982071293e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9371317425122712</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5471843060306556, 1.3270791789938867]</t>
+          <t>[2.245342497160272, 3.025237370123505]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.929529937136579e-06</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.929529937136579e-06</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.30291238680987</v>
+        <v>64.38124685568823</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.03561676678154, 72.57020800683821]</t>
+          <t>[55.62185051458456, 73.1406431967919]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.39889889889931</v>
+        <v>15.06606606606643</v>
       </c>
       <c r="X3" t="n">
-        <v>19.83803803803843</v>
+        <v>13.45555555555588</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.9597597597602</v>
+        <v>16.67657657657698</v>
       </c>
     </row>
   </sheetData>
